--- a/questions/questions.xlsx
+++ b/questions/questions.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mccrackenm/Documents/automation/questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB6C77A-C4A0-E74F-B052-6455E75BBE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040A4E07-8D65-9641-8A3B-F98A06FB85E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{70240B7A-7DE2-AD46-8029-C81E15CDC8BF}"/>
+    <workbookView xWindow="109080" yWindow="-14280" windowWidth="28800" windowHeight="17500" xr2:uid="{70240B7A-7DE2-AD46-8029-C81E15CDC8BF}"/>
   </bookViews>
   <sheets>
     <sheet name="General Knowledge" sheetId="1" r:id="rId1"/>
     <sheet name="News and Current Affairs" sheetId="2" r:id="rId2"/>
-    <sheet name="Animals" sheetId="3" r:id="rId3"/>
+    <sheet name="Confectionary" sheetId="3" r:id="rId3"/>
     <sheet name="Wipeout" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="107">
   <si>
     <t>question</t>
   </si>
@@ -45,15 +45,6 @@
     <t>answer</t>
   </si>
   <si>
-    <t>What news anchor did Will Ferrell act as in 2003?</t>
-  </si>
-  <si>
-    <t>Ron Burgundy</t>
-  </si>
-  <si>
-    <t>Beats</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -69,324 +60,321 @@
     <t>correct_option</t>
   </si>
   <si>
-    <t>What Year did was the BBC founded? 1902 or 1922</t>
-  </si>
-  <si>
-    <t>In which sea creature, does the male carry fertilised eggs during pregnancy?</t>
-  </si>
-  <si>
-    <t>Seahorse</t>
-  </si>
-  <si>
-    <t>Which of these roman numerals is valid?</t>
-  </si>
-  <si>
-    <t>IIII</t>
-  </si>
-  <si>
-    <t>MXM</t>
-  </si>
-  <si>
-    <t>CDM</t>
-  </si>
-  <si>
-    <t>XCIX</t>
-  </si>
-  <si>
-    <t>Which of these elements has the most protons?</t>
-  </si>
-  <si>
-    <t>Which of these is not a work of William Shakespear?</t>
-  </si>
-  <si>
-    <t>A Midsummer Night's Dream</t>
-  </si>
-  <si>
-    <t>Hamlet</t>
-  </si>
-  <si>
-    <t>The Merchant of Venice</t>
-  </si>
-  <si>
-    <t>Which is most valuable?</t>
-  </si>
-  <si>
-    <t>$6</t>
-  </si>
-  <si>
-    <t>Which grows in the womb for longer? Elephant or Whale?</t>
-  </si>
-  <si>
-    <t>Elephant</t>
-  </si>
-  <si>
-    <t>True or false: only mammals can have fur or hair</t>
-  </si>
-  <si>
-    <t>Which english computer scientist invented the world wide web in 1989?</t>
-  </si>
-  <si>
-    <t>Tim Berners-Lee</t>
-  </si>
-  <si>
-    <t>In the popular gameshow 'Deal or No Deal?', what is the third largest prize amount?</t>
-  </si>
-  <si>
-    <t>Andre Young and Jimmy Iovine founded which company in 2006, which was later sold to Apple for $3.2B?</t>
-  </si>
-  <si>
-    <t>Lead</t>
-  </si>
-  <si>
-    <t>Sodium</t>
-  </si>
-  <si>
-    <t>Potassium</t>
-  </si>
-  <si>
-    <t>Aluminium</t>
-  </si>
-  <si>
-    <t>A Tale of Two Cities</t>
-  </si>
-  <si>
-    <t>¥100</t>
-  </si>
-  <si>
-    <t>Jubilee</t>
-  </si>
-  <si>
-    <t>Circle</t>
-  </si>
-  <si>
-    <t>Victoria</t>
-  </si>
-  <si>
-    <t>Which tube line stops at the fewest stations?</t>
-  </si>
-  <si>
-    <t>Bakerloo</t>
-  </si>
-  <si>
-    <t>27,36,16,25</t>
-  </si>
-  <si>
-    <t>Gary Barlow, Howard Donald, Mark Own, Robbie Williams, Jason Orange</t>
-  </si>
-  <si>
-    <t>The harvestman spider, is better known by which name?</t>
-  </si>
-  <si>
-    <t>Daddy Long Legs</t>
-  </si>
-  <si>
-    <t>Which colour of labrador is most common in the UK? Black, Yellow, or Brown</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>180mph</t>
-  </si>
-  <si>
-    <t>70mph</t>
-  </si>
-  <si>
-    <t>120mph</t>
-  </si>
-  <si>
-    <t>250mp</t>
-  </si>
-  <si>
-    <t>What is the world record top speed for paced cycling, where a vehicle travels infront of the cyclist to reduce drag?</t>
-  </si>
-  <si>
-    <t>In electronics, what does HDMI stand for?</t>
-  </si>
-  <si>
-    <t>High-Definition Multimedia interface</t>
-  </si>
-  <si>
-    <t>In British Government, list the 4 "Great Offices Of State"</t>
-  </si>
-  <si>
-    <t>Prime Minister, Home Secretary, Foreign Secretary, Chancellor of the Exchequer</t>
-  </si>
-  <si>
-    <t>Which of these car brands is not owned by Volkswagen?</t>
-  </si>
-  <si>
-    <t>Skoda</t>
-  </si>
-  <si>
-    <t>Bentley</t>
-  </si>
-  <si>
-    <t>Porsche</t>
-  </si>
-  <si>
-    <t>Lexus</t>
-  </si>
-  <si>
-    <t>What is the name for a baby deer?</t>
-  </si>
-  <si>
-    <t>Fawn</t>
-  </si>
-  <si>
-    <t>Rhinocerous</t>
-  </si>
-  <si>
-    <t>How many tokens does each player get in the game Ludo?</t>
-  </si>
-  <si>
-    <t>List 4 members of Take That (including past members)</t>
-  </si>
-  <si>
-    <t>Which "L" has the highest population?</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Los Angeles</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Lagos</t>
-  </si>
-  <si>
-    <t>Which is closer to London (Trafalgar Square), Dover or Cambridge?</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
     <t>France</t>
   </si>
   <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Lough Neagh</t>
+  </si>
+  <si>
+    <t>Motor Bike Racing</t>
+  </si>
+  <si>
+    <t>What sport is the NorthWest 200?</t>
+  </si>
+  <si>
+    <t>The Great Famine was caused by a shortage of which crop?</t>
+  </si>
+  <si>
+    <t>Potatoes</t>
+  </si>
+  <si>
+    <t>A black hole</t>
+  </si>
+  <si>
+    <t>Scientists reveled the first ever photograph of what astronomical object in April 2019?</t>
+  </si>
+  <si>
+    <t>Which country has won the Eurovision Song Contest most?</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Which netflix series features Asa Butterfield as a therapist?</t>
+  </si>
+  <si>
+    <t>Sex Education</t>
+  </si>
+  <si>
+    <t>Which criminals rang the gang called "The Firm" in the 50's and 60's?</t>
+  </si>
+  <si>
+    <t>The Kray Twins</t>
+  </si>
+  <si>
+    <t>By what name is Gordon Sumner better known?</t>
+  </si>
+  <si>
+    <t>Sting</t>
+  </si>
+  <si>
+    <t>Loch Lomond</t>
+  </si>
+  <si>
+    <t>Loch Ness</t>
+  </si>
+  <si>
+    <t>Lough Ern</t>
+  </si>
+  <si>
+    <t>What's the bigsest lake/lough/loch in the British Isles?</t>
+  </si>
+  <si>
+    <t>Who was crowned champion of the Great British Bake Off?</t>
+  </si>
+  <si>
+    <t>Giuseppe</t>
+  </si>
+  <si>
+    <t>Stylus</t>
+  </si>
+  <si>
+    <t>What is the name of a needle on a viny record player?</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Which teeth do adults have most of?</t>
+  </si>
+  <si>
+    <t>Canines</t>
+  </si>
+  <si>
+    <t>Incisors</t>
+  </si>
+  <si>
+    <t>Pre-molars</t>
+  </si>
+  <si>
+    <t>Molars</t>
+  </si>
+  <si>
+    <t>In boxing, the Klitschko brothers come from which country: Russia, Ukraine, or Romania?</t>
+  </si>
+  <si>
+    <t>The Dune</t>
+  </si>
+  <si>
+    <t>Which of these is not a river in Aberdeen: The Dee, The Don, or The Dune?</t>
+  </si>
+  <si>
+    <t>In which key is a piece of music that has a signature key of no sharps or flats?</t>
+  </si>
+  <si>
+    <t>What nationality is Justin Beiber?</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>Australian</t>
+  </si>
+  <si>
+    <t>Canadian</t>
+  </si>
+  <si>
+    <t>List all of the countries which form the G7</t>
+  </si>
+  <si>
+    <t>Daniel Craig portrayed James Bond in Casino Royale, but which other actor did it first?</t>
+  </si>
+  <si>
+    <t>David Niven</t>
+  </si>
+  <si>
+    <t>Sean Connery</t>
+  </si>
+  <si>
+    <t>George Lazenby</t>
+  </si>
+  <si>
+    <t>Harvey Keitel</t>
+  </si>
+  <si>
     <t>Germany</t>
   </si>
   <si>
-    <t>1300 - 3000 - 1500 - 1500</t>
-  </si>
-  <si>
-    <t>After the USA, which country has the most McDonald's restaurants?</t>
-  </si>
-  <si>
-    <t>Which of these Marvel films was released most recently?</t>
-  </si>
-  <si>
-    <t>Doctor Strange</t>
-  </si>
-  <si>
-    <t>Guardians of the Galaxy</t>
-  </si>
-  <si>
-    <t>Iron Man 3</t>
-  </si>
-  <si>
-    <t>Ant Man</t>
-  </si>
-  <si>
-    <t>After cats and dogs, list the 5 most common UK household pets</t>
-  </si>
-  <si>
-    <t>Rabbit, Bird, Guinea Pig, Hamster, Tortoise/Turtle</t>
-  </si>
-  <si>
-    <t>Which of these dogs do not have naturally pointed ears? Chihuahua, Corgi or Dobermann?</t>
-  </si>
-  <si>
-    <t>Dobermann</t>
-  </si>
-  <si>
-    <t>A male horse which has not been castrated is called a Stallion. What is the term for a horse which has been castrated?</t>
-  </si>
-  <si>
-    <t>Gelding</t>
-  </si>
-  <si>
-    <r>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>What is the Chemical formula for the compound known as O-zone, commonly known to surround earth's atmosphere?</t>
-  </si>
-  <si>
-    <t>In computing, ASCII is a text encoding, which allows for how many characters?</t>
-  </si>
-  <si>
-    <t>Southeast</t>
-  </si>
-  <si>
-    <t>Which train service was recently taken over by the government, after failing to declare £25m in taxpayer funding</t>
-  </si>
-  <si>
-    <t>Which country in the UK has the lowest COVID-19 vaccination rate?</t>
-  </si>
-  <si>
-    <t>Northern Ireland</t>
-  </si>
-  <si>
-    <t>Petrol prices are currently nearing record highs. To the nearest 5p, how much is a litre of petrol on average?</t>
-  </si>
-  <si>
-    <t>140p</t>
-  </si>
-  <si>
-    <t>Contactless payments in the UK recently rose to £100. What was the previous limit?</t>
-  </si>
-  <si>
-    <t>Dune</t>
-  </si>
-  <si>
-    <t>Which sci-fi movie, directed by Dennis Villeneuve, is releasing this week?</t>
-  </si>
-  <si>
-    <t>Adele's upcoming album, titled "30", is due to be released next month. How old is she?</t>
-  </si>
-  <si>
-    <t>Sir Elton John recently topped the UK charts for the first time in 16 years. Which track, featuring a post-humous appearance from 2pac, was his last number 1?</t>
-  </si>
-  <si>
-    <t>Ghetto Gospel</t>
-  </si>
-  <si>
-    <t>Which star of the UK sitcom "Peep Show", recently had to withdraw from Strictly Come Dancing due to health concerns?</t>
-  </si>
-  <si>
-    <t>Robert Webb</t>
-  </si>
-  <si>
-    <t>Cambridge</t>
-  </si>
-  <si>
-    <t>Which weighs more, a rhinocerous or a hippopotamus?</t>
+    <t>Canada
+France
+Germany
+Italy
+Japan
+UK
+USA</t>
+  </si>
+  <si>
+    <t>Eton has produced over 20 prime ministers - which of these was not one?</t>
+  </si>
+  <si>
+    <t>Harold Macmillan</t>
+  </si>
+  <si>
+    <t>David Cameron</t>
+  </si>
+  <si>
+    <t>Boris Johnson</t>
+  </si>
+  <si>
+    <t>Tony Blair</t>
+  </si>
+  <si>
+    <t>Which gas are the bubbles in an Aero Bar made from?</t>
+  </si>
+  <si>
+    <t>Carbon Dioxide</t>
+  </si>
+  <si>
+    <t>Which is the top selling chocolate bar in the UK?</t>
+  </si>
+  <si>
+    <t>Dairy Milk</t>
+  </si>
+  <si>
+    <t>What should you do, "If you like a lot of chocolate on your biscuit, …"</t>
+  </si>
+  <si>
+    <t>Join our club</t>
+  </si>
+  <si>
+    <t>Snickers was originally called what?</t>
+  </si>
+  <si>
+    <t>Marathon</t>
+  </si>
+  <si>
+    <t>Gummy bears were invented in which country?</t>
+  </si>
+  <si>
+    <t>What are the two flavours that make up a Barrett's fruit salad?</t>
+  </si>
+  <si>
+    <t>Strawberry and Pineapple</t>
+  </si>
+  <si>
+    <t>How many segments are in a Terry's Chocolate Orange</t>
+  </si>
+  <si>
+    <t>Which sweets are most commonly associated with Dr. Who?</t>
+  </si>
+  <si>
+    <t>Jelly Babies</t>
+  </si>
+  <si>
+    <t>What animal can be seen in the Toblerone logo?</t>
+  </si>
+  <si>
+    <t>A Bear</t>
+  </si>
+  <si>
+    <t>What were starbursts originally called?</t>
+  </si>
+  <si>
+    <t>Opal Fruits</t>
+  </si>
+  <si>
+    <t>What is the name of the new covid variant causing concern for the UK?</t>
+  </si>
+  <si>
+    <t>Omicron</t>
+  </si>
+  <si>
+    <t>Which childrens character did Boris Johnson recently rave about during a speech to the Conferation of British Industry?</t>
+  </si>
+  <si>
+    <t>Peppa Pig</t>
+  </si>
+  <si>
+    <t>How many siblings does Boris Johnson have?</t>
+  </si>
+  <si>
+    <t>The first female prime minister of which country, was forced to resign after just 7 hours?</t>
+  </si>
+  <si>
+    <t>The government was forced to set aside £1.7Bn, to prop up which collapsed energy supplier?</t>
+  </si>
+  <si>
+    <t>Bulb</t>
+  </si>
+  <si>
+    <t>HIV</t>
+  </si>
+  <si>
+    <t>A woman last week was found to be the second person ever to rid themselves of which disease, without treatment?</t>
+  </si>
+  <si>
+    <t>List all of the tube lines affected by strikes over the last weekend</t>
+  </si>
+  <si>
+    <t>Piccadilly
+Victoria
+Northern
+Central
+Waterloo &amp; City
+Jubilee</t>
+  </si>
+  <si>
+    <t>SpaceX launched a rocket into space in an attempt to alter the course of an asterioid, much like which two 1998 films?</t>
+  </si>
+  <si>
+    <t>Armageddon, Deep Impact</t>
+  </si>
+  <si>
+    <t>Olaf Schulz is expected to take over which world leader in December, after a vote last week?</t>
+  </si>
+  <si>
+    <t>Angela Merkel</t>
+  </si>
+  <si>
+    <t>What does the Italian term "adagio" mean in music?</t>
+  </si>
+  <si>
+    <t>Slowly</t>
+  </si>
+  <si>
+    <t>Quickly</t>
+  </si>
+  <si>
+    <t>Softened</t>
+  </si>
+  <si>
+    <t>Silenced</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Which of these countries produces the most cheese?</t>
+  </si>
+  <si>
+    <t>JLS came second in the x factor, after losing to which winner?</t>
+  </si>
+  <si>
+    <t>Alexandra Burke</t>
+  </si>
+  <si>
+    <t>Little Mix</t>
+  </si>
+  <si>
+    <t>Leona Lewis</t>
+  </si>
+  <si>
+    <t>James Arthur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0_);[Red]\(&quot;£&quot;#,##0\)"/>
-    <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -418,8 +406,9 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -443,21 +432,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="67">
     <dxf>
       <fill>
         <patternFill>
@@ -475,6 +474,111 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF03E4"/>
         </patternFill>
       </fill>
@@ -482,6 +586,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF03E4"/>
         </patternFill>
       </fill>
@@ -489,7 +635,273 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -832,12 +1244,13 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="89.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="120.83203125" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -850,97 +1263,175 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="1">
-        <v>75000</v>
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11">
-        <v>128</v>
+        <v>48</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A11">
-    <cfRule type="expression" dxfId="7" priority="1">
+  <conditionalFormatting sqref="A3 A6:A9">
+    <cfRule type="expression" dxfId="66" priority="25">
+      <formula>ISNUMBER(SEARCH("list", $A3))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="26">
+      <formula>ISNUMBER(SEARCH("List", $A3))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="27">
+      <formula>ISNUMBER(SEARCH(" or ", $A3))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="expression" dxfId="63" priority="22">
       <formula>ISNUMBER(SEARCH("list", $A2))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
-      <formula>ISNUMBER(SEARCH("List", $A2))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="62" priority="23">
+      <formula>ISNUMBER(SEARCH("list", $A2))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="24">
       <formula>ISNUMBER(SEARCH(" or ", $A2))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="expression" dxfId="20" priority="16">
+      <formula>ISNUMBER(SEARCH("list", $A11))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="17">
+      <formula>ISNUMBER(SEARCH("List", $A11))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="18">
+      <formula>ISNUMBER(SEARCH(" or ", $A11))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="expression" dxfId="16" priority="13">
+      <formula>ISNUMBER(SEARCH("list", $A16))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="14">
+      <formula>ISNUMBER(SEARCH("List", $A16))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>ISNUMBER(SEARCH(" or ", $A16))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="expression" dxfId="13" priority="10">
+      <formula>ISNUMBER(SEARCH("list", $A5))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="11">
+      <formula>ISNUMBER(SEARCH("List", $A5))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>ISNUMBER(SEARCH(" or ", $A5))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="expression" dxfId="10" priority="7">
+      <formula>ISNUMBER(SEARCH("list", $A15))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="8">
+      <formula>ISNUMBER(SEARCH("List", $A15))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISNUMBER(SEARCH(" or ", $A15))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>ISNUMBER(SEARCH("list", $A4))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>ISNUMBER(SEARCH("List", $A4))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISNUMBER(SEARCH(" or ", $A4))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>ISNUMBER(SEARCH("list", $A10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>ISNUMBER(SEARCH("List", $A10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISNUMBER(SEARCH(" or ", $A10))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;7&amp;K000000 C2 General</oddFooter>
   </headerFooter>
@@ -952,225 +1443,292 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="97" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="107.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4">
-        <v>1922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="4">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>107</v>
+    <row r="11" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A5 A8:A11">
+    <cfRule type="expression" dxfId="57" priority="10">
+      <formula>ISNUMBER(SEARCH("list", $A2))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="11">
+      <formula>ISNUMBER(SEARCH("list", $A2))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="12">
+      <formula>ISNUMBER(SEARCH(" or ", $A2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="expression" dxfId="54" priority="4">
+      <formula>ISNUMBER(SEARCH("list", $A6))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="5">
+      <formula>ISNUMBER(SEARCH("list", $A6))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="6">
+      <formula>ISNUMBER(SEARCH(" or ", $A6))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="expression" dxfId="51" priority="1">
+      <formula>ISNUMBER(SEARCH("list", $A7))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="2">
+      <formula>ISNUMBER(SEARCH("list", $A7))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="3">
+      <formula>ISNUMBER(SEARCH(" or ", $A7))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA004681-36DF-6D48-9CDD-AB4FAA674CE4}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="101.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="b">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>46</v>
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>48</v>
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>64</v>
+      <c r="A6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>90</v>
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>65</v>
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="A10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A11">
-    <cfRule type="expression" dxfId="4" priority="1">
+  <conditionalFormatting sqref="A16">
+    <cfRule type="expression" dxfId="48" priority="9">
+      <formula>ISNUMBER(SEARCH(" or ", $A16))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="expression" dxfId="47" priority="8">
+      <formula>ISNUMBER(SEARCH("list", $A16))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11 A2:A9">
+    <cfRule type="expression" dxfId="46" priority="7">
+      <formula>ISNUMBER(SEARCH("list", $A2))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="10">
+      <formula>ISNUMBER(SEARCH("List", $A2))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="11">
       <formula>ISNUMBER(SEARCH(" or ", $A2))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="expression" dxfId="43" priority="1">
+      <formula>ISNUMBER(SEARCH("list", $A10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="2">
+      <formula>ISNUMBER(SEARCH("List", $A10))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="3">
+      <formula>ISNUMBER(SEARCH(" or ", $A10))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5412768-9D0E-F24F-A76A-2322C70E78CD}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1178,7 +1736,7 @@
     <col min="1" max="1" width="91.33203125" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
@@ -1189,258 +1747,336 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
         <v>4</v>
-      </c>
-      <c r="C6" s="6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>60</v>
       </c>
-      <c r="D8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" t="s">
-        <v>62</v>
-      </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
+      <c r="A9" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" t="s">
-        <v>75</v>
+      <c r="A10" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>78</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" t="s">
-        <v>82</v>
+      <c r="A11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B4 B6:B11">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="B2 B6:B7 B10:B11 B4">
+    <cfRule type="expression" dxfId="40" priority="27">
       <formula>$F2="A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C11">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="C2:C7 C9:C11">
+    <cfRule type="expression" dxfId="39" priority="26">
       <formula>$F2="B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D4 D6:D11">
+  <conditionalFormatting sqref="D2:D4 D6:D7 D9:D11">
+    <cfRule type="expression" dxfId="38" priority="25">
+      <formula>$F2="C"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E4 E6:E7 E9:E11">
+    <cfRule type="expression" dxfId="37" priority="24">
+      <formula>$F2="D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18 A6">
+    <cfRule type="expression" dxfId="36" priority="21">
+      <formula>ISNUMBER(SEARCH("list", $A6))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="22">
+      <formula>ISNUMBER(SEARCH("List", $A6))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="23">
+      <formula>ISNUMBER(SEARCH(" or ", $A6))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="expression" dxfId="33" priority="15">
+      <formula>ISNUMBER(SEARCH("list", $A14))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="16">
+      <formula>ISNUMBER(SEARCH("List", $A14))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="17">
+      <formula>ISNUMBER(SEARCH(" or ", $A14))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="30" priority="11">
+      <formula>$F5="A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="29" priority="10">
+      <formula>$F5="D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="28" priority="9">
+      <formula>$F9="A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="27" priority="47">
+      <formula>#REF!="A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="26" priority="48">
+      <formula>#REF!="B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="24" priority="7">
+      <formula>$F8="C"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A5 A7:A11">
+    <cfRule type="expression" dxfId="23" priority="4">
+      <formula>ISNUMBER(SEARCH("list", $A3))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="5">
+      <formula>ISNUMBER(SEARCH("List", $A3))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="6">
+      <formula>ISNUMBER(SEARCH(" or ", $A3))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="17" priority="3">
+      <formula>$F5="C"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$F2="C"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E4 E6:E11">
+      <formula>$F8="D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$F2="D"</formula>
+      <formula>$F3="A"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F11" xr:uid="{88BE9D1F-C1E5-774F-8E8A-1FC8B01C0979}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7 F9:F10" xr:uid="{88BE9D1F-C1E5-774F-8E8A-1FC8B01C0979}">
       <formula1>"A,B,C,D"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="https://en.wikipedia.org/wiki/A_Midsummer_Night%27s_Dream" xr:uid="{28FDD403-9A2A-9C43-9C0E-E8C8C4ED03DE}"/>
-    <hyperlink ref="D5" r:id="rId2" tooltip="Hamlet" display="https://en.wikipedia.org/wiki/Hamlet" xr:uid="{EFFA310D-4957-D74B-AFBA-6C5127612B2A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/questions/questions.xlsx
+++ b/questions/questions.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mccrackenm/Documents/automation/questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040A4E07-8D65-9641-8A3B-F98A06FB85E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6134CB-E898-384B-A058-6F9977433156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="109080" yWindow="-14280" windowWidth="28800" windowHeight="17500" xr2:uid="{70240B7A-7DE2-AD46-8029-C81E15CDC8BF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{70240B7A-7DE2-AD46-8029-C81E15CDC8BF}"/>
   </bookViews>
   <sheets>
     <sheet name="General Knowledge" sheetId="1" r:id="rId1"/>
     <sheet name="News and Current Affairs" sheetId="2" r:id="rId2"/>
-    <sheet name="Confectionary" sheetId="3" r:id="rId3"/>
+    <sheet name="Movie Trivia" sheetId="3" r:id="rId3"/>
     <sheet name="Wipeout" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="111">
   <si>
     <t>question</t>
   </si>
@@ -60,315 +60,364 @@
     <t>correct_option</t>
   </si>
   <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Lough Neagh</t>
-  </si>
-  <si>
-    <t>Motor Bike Racing</t>
-  </si>
-  <si>
-    <t>What sport is the NorthWest 200?</t>
-  </si>
-  <si>
-    <t>The Great Famine was caused by a shortage of which crop?</t>
-  </si>
-  <si>
-    <t>Potatoes</t>
-  </si>
-  <si>
-    <t>A black hole</t>
-  </si>
-  <si>
-    <t>Scientists reveled the first ever photograph of what astronomical object in April 2019?</t>
-  </si>
-  <si>
-    <t>Which country has won the Eurovision Song Contest most?</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Which netflix series features Asa Butterfield as a therapist?</t>
-  </si>
-  <si>
-    <t>Sex Education</t>
-  </si>
-  <si>
-    <t>Which criminals rang the gang called "The Firm" in the 50's and 60's?</t>
-  </si>
-  <si>
-    <t>The Kray Twins</t>
-  </si>
-  <si>
-    <t>By what name is Gordon Sumner better known?</t>
-  </si>
-  <si>
-    <t>Sting</t>
-  </si>
-  <si>
-    <t>Loch Lomond</t>
-  </si>
-  <si>
-    <t>Loch Ness</t>
-  </si>
-  <si>
-    <t>Lough Ern</t>
-  </si>
-  <si>
-    <t>What's the bigsest lake/lough/loch in the British Isles?</t>
-  </si>
-  <si>
-    <t>Who was crowned champion of the Great British Bake Off?</t>
-  </si>
-  <si>
-    <t>Giuseppe</t>
-  </si>
-  <si>
-    <t>Stylus</t>
-  </si>
-  <si>
-    <t>What is the name of a needle on a viny record player?</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Which teeth do adults have most of?</t>
-  </si>
-  <si>
-    <t>Canines</t>
-  </si>
-  <si>
-    <t>Incisors</t>
-  </si>
-  <si>
-    <t>Pre-molars</t>
-  </si>
-  <si>
-    <t>Molars</t>
-  </si>
-  <si>
-    <t>In boxing, the Klitschko brothers come from which country: Russia, Ukraine, or Romania?</t>
-  </si>
-  <si>
-    <t>The Dune</t>
-  </si>
-  <si>
-    <t>Which of these is not a river in Aberdeen: The Dee, The Don, or The Dune?</t>
-  </si>
-  <si>
-    <t>In which key is a piece of music that has a signature key of no sharps or flats?</t>
-  </si>
-  <si>
-    <t>What nationality is Justin Beiber?</t>
-  </si>
-  <si>
-    <t>American</t>
-  </si>
-  <si>
-    <t>Australian</t>
-  </si>
-  <si>
-    <t>Canadian</t>
-  </si>
-  <si>
-    <t>List all of the countries which form the G7</t>
-  </si>
-  <si>
-    <t>Daniel Craig portrayed James Bond in Casino Royale, but which other actor did it first?</t>
-  </si>
-  <si>
-    <t>David Niven</t>
-  </si>
-  <si>
-    <t>Sean Connery</t>
-  </si>
-  <si>
-    <t>George Lazenby</t>
-  </si>
-  <si>
-    <t>Harvey Keitel</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Canada
-France
-Germany
-Italy
-Japan
-UK
-USA</t>
-  </si>
-  <si>
-    <t>Eton has produced over 20 prime ministers - which of these was not one?</t>
-  </si>
-  <si>
-    <t>Harold Macmillan</t>
-  </si>
-  <si>
-    <t>David Cameron</t>
-  </si>
-  <si>
-    <t>Boris Johnson</t>
-  </si>
-  <si>
-    <t>Tony Blair</t>
-  </si>
-  <si>
-    <t>Which gas are the bubbles in an Aero Bar made from?</t>
-  </si>
-  <si>
-    <t>Carbon Dioxide</t>
-  </si>
-  <si>
-    <t>Which is the top selling chocolate bar in the UK?</t>
-  </si>
-  <si>
-    <t>Dairy Milk</t>
-  </si>
-  <si>
-    <t>What should you do, "If you like a lot of chocolate on your biscuit, …"</t>
-  </si>
-  <si>
-    <t>Join our club</t>
-  </si>
-  <si>
-    <t>Snickers was originally called what?</t>
-  </si>
-  <si>
-    <t>Marathon</t>
-  </si>
-  <si>
-    <t>Gummy bears were invented in which country?</t>
-  </si>
-  <si>
-    <t>What are the two flavours that make up a Barrett's fruit salad?</t>
-  </si>
-  <si>
-    <t>Strawberry and Pineapple</t>
-  </si>
-  <si>
-    <t>How many segments are in a Terry's Chocolate Orange</t>
-  </si>
-  <si>
-    <t>Which sweets are most commonly associated with Dr. Who?</t>
-  </si>
-  <si>
-    <t>Jelly Babies</t>
-  </si>
-  <si>
-    <t>What animal can be seen in the Toblerone logo?</t>
-  </si>
-  <si>
-    <t>A Bear</t>
-  </si>
-  <si>
-    <t>What were starbursts originally called?</t>
-  </si>
-  <si>
-    <t>Opal Fruits</t>
-  </si>
-  <si>
-    <t>What is the name of the new covid variant causing concern for the UK?</t>
-  </si>
-  <si>
-    <t>Omicron</t>
-  </si>
-  <si>
-    <t>Which childrens character did Boris Johnson recently rave about during a speech to the Conferation of British Industry?</t>
-  </si>
-  <si>
-    <t>Peppa Pig</t>
-  </si>
-  <si>
-    <t>How many siblings does Boris Johnson have?</t>
-  </si>
-  <si>
-    <t>The first female prime minister of which country, was forced to resign after just 7 hours?</t>
-  </si>
-  <si>
-    <t>The government was forced to set aside £1.7Bn, to prop up which collapsed energy supplier?</t>
-  </si>
-  <si>
-    <t>Bulb</t>
-  </si>
-  <si>
-    <t>HIV</t>
-  </si>
-  <si>
-    <t>A woman last week was found to be the second person ever to rid themselves of which disease, without treatment?</t>
-  </si>
-  <si>
-    <t>List all of the tube lines affected by strikes over the last weekend</t>
-  </si>
-  <si>
-    <t>Piccadilly
-Victoria
-Northern
-Central
-Waterloo &amp; City
-Jubilee</t>
-  </si>
-  <si>
-    <t>SpaceX launched a rocket into space in an attempt to alter the course of an asterioid, much like which two 1998 films?</t>
-  </si>
-  <si>
-    <t>Armageddon, Deep Impact</t>
-  </si>
-  <si>
-    <t>Olaf Schulz is expected to take over which world leader in December, after a vote last week?</t>
-  </si>
-  <si>
-    <t>Angela Merkel</t>
-  </si>
-  <si>
-    <t>What does the Italian term "adagio" mean in music?</t>
-  </si>
-  <si>
-    <t>Slowly</t>
-  </si>
-  <si>
-    <t>Quickly</t>
-  </si>
-  <si>
-    <t>Softened</t>
-  </si>
-  <si>
-    <t>Silenced</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Which of these countries produces the most cheese?</t>
-  </si>
-  <si>
-    <t>JLS came second in the x factor, after losing to which winner?</t>
+    <t>What is the standard tuning for a guitar?</t>
+  </si>
+  <si>
+    <t>EADGBE</t>
+  </si>
+  <si>
+    <t>What was the name of Oasis' last studio album?</t>
+  </si>
+  <si>
+    <t>Dig out your soul</t>
+  </si>
+  <si>
+    <t>Which country recently ditched the monarchy, to be come a republic?</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Gregg Wallace</t>
+  </si>
+  <si>
+    <t>Which masterchef judge is also a presenter on "Inside the Factory"?</t>
+  </si>
+  <si>
+    <t>Which national rugby union team is nicknamed "The Wallabies"</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Scary, Sporty, Baby, Ginger, Posh</t>
+  </si>
+  <si>
+    <t>List the 5 spices of Spice Girls</t>
+  </si>
+  <si>
+    <t>What is the name of Warren Buffet's hedge fund?</t>
+  </si>
+  <si>
+    <t>Berkshire Hathaway</t>
+  </si>
+  <si>
+    <t>In the Harry Potter novels, which of these was not a material used as a wand core?</t>
+  </si>
+  <si>
+    <t>Unicorn Tail</t>
+  </si>
+  <si>
+    <t>Phoenix Feather</t>
+  </si>
+  <si>
+    <t>Dragon Heartstring</t>
+  </si>
+  <si>
+    <t>Thestral Horn</t>
+  </si>
+  <si>
+    <t>The BCG vaccine is used in the prevention of which disease?</t>
+  </si>
+  <si>
+    <t>Tuberculosis</t>
+  </si>
+  <si>
+    <t>Royal National Lifeboat Institute</t>
+  </si>
+  <si>
+    <t>In public services, what does the initialism RNLI stand for?</t>
+  </si>
+  <si>
+    <t>Which 2019 film, is a sequel to both Unbreakable (2000), and Split (2016)</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>What is the second most commonly used letter in the english language?</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>The Trial of the Chicago 7
+The Aeronauts 
+Fantastic Beasts: The Crimes of Grindelwald 
+Early Man
+Fantastic Beasts and Where to Find Them 
+The Danish Girl
+Thomas &amp; Friends: Sodor's Legend of the Lost Treasure 
+Jupiter Ascending 
+The Theory of Everything 
+Les Misérables</t>
+  </si>
+  <si>
+    <t>List 4 feature films released, starring Eddie Redmayne, from 2012 onwards</t>
+  </si>
+  <si>
+    <t>What object, named after James Webb, is due to be launched just before christmas?</t>
+  </si>
+  <si>
+    <t>Telescope</t>
+  </si>
+  <si>
+    <t>In chess, which of these pieces is said to be more valuable?</t>
+  </si>
+  <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Rook</t>
+  </si>
+  <si>
+    <t>Pawn</t>
+  </si>
+  <si>
+    <t>Which is the worlds second lagest country by area?</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Ecru</t>
+  </si>
+  <si>
+    <t>Crue</t>
+  </si>
+  <si>
+    <t>Ruce</t>
+  </si>
+  <si>
+    <t>Ceru</t>
+  </si>
+  <si>
+    <t>Which anagram of "Cure" is also a pale colour?</t>
+  </si>
+  <si>
+    <t>According to the children's nursery rhyme, which child is loving and giving?</t>
+  </si>
+  <si>
+    <t>Tuesdays</t>
+  </si>
+  <si>
+    <t>Fridays</t>
+  </si>
+  <si>
+    <t>Saturdays</t>
+  </si>
+  <si>
+    <t>Thursdays</t>
+  </si>
+  <si>
+    <t>Aircraft</t>
+  </si>
+  <si>
+    <t>Rail</t>
+  </si>
+  <si>
+    <t>Boat</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Which type of transport would use a VTOL system?</t>
+  </si>
+  <si>
+    <t>In transport, what do the initials MOT stand for</t>
+  </si>
+  <si>
+    <t>Motor Observation Test</t>
+  </si>
+  <si>
+    <t>Ministry of Transport</t>
+  </si>
+  <si>
+    <t>Motor On-road Test</t>
+  </si>
+  <si>
+    <t>Motor Operating Test</t>
+  </si>
+  <si>
+    <t>Danny Boyle</t>
+  </si>
+  <si>
+    <t>Guy Ritchie</t>
+  </si>
+  <si>
+    <t>Sam Mendes</t>
+  </si>
+  <si>
+    <t>Ridley Scott</t>
+  </si>
+  <si>
+    <t>Who directed the film Trainspotting?</t>
+  </si>
+  <si>
+    <t>How many letters are in the spanish alphabet?</t>
+  </si>
+  <si>
+    <t>In Back to the Future III, which year does Marty travel to?</t>
+  </si>
+  <si>
+    <t>Risky Business</t>
+  </si>
+  <si>
+    <t>Which Tom Cruise film features a glass egg?</t>
+  </si>
+  <si>
+    <t>Which of these films did not win an Academy Award for best picture: Birdman, Green Book, or Gravity?</t>
+  </si>
+  <si>
+    <t>Gravity</t>
+  </si>
+  <si>
+    <t>Lotus Esprit</t>
+  </si>
+  <si>
+    <t>In Pretty Woman, Richard Gere borrows his laywer's sports car - but what make is it: Lotus, Lamborghini or Ferrari?</t>
+  </si>
+  <si>
+    <t>The 2019 comedy Jojo Rabbit features a 10 year old boy - who is his imaginary friend?</t>
+  </si>
+  <si>
+    <t>Hitler</t>
+  </si>
+  <si>
+    <t>Which of these classics were released first: The Matrix, Gladiator, or American History X?</t>
+  </si>
+  <si>
+    <t>American History X</t>
+  </si>
+  <si>
+    <t>Which film is set in a dystopian future Los Angeles of 2019?</t>
+  </si>
+  <si>
+    <t>Blade Runner</t>
+  </si>
+  <si>
+    <t>In the 2008 pixar animated film, what does WALL-E stand for?</t>
+  </si>
+  <si>
+    <t>Waste Allocation Load Lifter: Earth-Class</t>
+  </si>
+  <si>
+    <t>"Freddie Got Fingered" was critically panned upon release, but later developed a cult following. What is the name of the main character?</t>
+  </si>
+  <si>
+    <t>Gordo</t>
+  </si>
+  <si>
+    <t>Spider-Man: No way home
+Eternals
+Shang-Chi and the legend of the 10 rings
+Black Widow
+Spider-Man: Far from home
+Avengers: Endgame
+Captain Marvel
+Ant-man and the wasp
+Avengers: Infinity War
+Black Panther</t>
+  </si>
+  <si>
+    <t>List 6 of the last 10 marvel movies</t>
+  </si>
+  <si>
+    <t>Which international gift received recently was rather underwhelming?</t>
+  </si>
+  <si>
+    <t>Trafalgar Square Tree</t>
+  </si>
+  <si>
+    <t>What In the news recently, what is Sotrovimab?</t>
+  </si>
+  <si>
+    <t>Covid antibody treatment</t>
+  </si>
+  <si>
+    <t>Rhod Chill-bert</t>
+  </si>
+  <si>
+    <t>Which of these was not a newly named welsh gritter: Gareth Hale, Catherine Sleeta-Jones, or Rhod Chill-bert</t>
+  </si>
+  <si>
+    <t>A man has recently received the world's first 3D printed what?</t>
+  </si>
+  <si>
+    <t>Prosthetic Eye</t>
+  </si>
+  <si>
+    <t>152 (91-213)</t>
+  </si>
+  <si>
+    <t>How many £200 fines did TfL issue on Tuesday when new rules were introduced making masks mandatory? (within 40%)</t>
+  </si>
+  <si>
+    <t>Keir Starmer recently reshuffled his Shadow Cabinet. List 3 members of the labour shadow cabinet</t>
+  </si>
+  <si>
+    <t>Aldi, M&amp;S Food, Lidl</t>
+  </si>
+  <si>
+    <t>According to a recent YouGov survey, which 3 supermarkets have the highest approval rating? Choose from Aldi, Asda, Co-op, Iceland, Lidl, M&amp;S Food, Morrisons, Sainsbury's, Tesco</t>
+  </si>
+  <si>
+    <t>Who was due to switch on the Christmas Lights in the East Village, but has had to cancel due to overwhelming demand?</t>
   </si>
   <si>
     <t>Alexandra Burke</t>
   </si>
   <si>
-    <t>Little Mix</t>
-  </si>
-  <si>
-    <t>Leona Lewis</t>
-  </si>
-  <si>
-    <t>James Arthur</t>
+    <t>Angela Raynor
+Anneliese Dodds
+Shabana Mahmood
+Rachel Reeves
+Pat McFadden
+David Lammy
+Yvette Cooper
+Bridget Phillipson
+Lisa Nandy
+Nick Thomas-Symonds
+John Healey
+Jonathan Ashworth
+Rosena Allin-Khan
+Jonathan Rynolds
+Ed Miliband
+Steve Reed
+Wes Streeting
+Lucy Powell
+Jim McMahon
+Louise Haigh
+Preet Kaur Gill
+Jo Stevens
+Ian Murray
+Peter Kyle
+Kenny Chapman
+Conor McGinn
+Thangam Debbonaire
+Baroness Smith
+Alan Campbell
+Lord Kennedy
+Emily Thornberry</t>
   </si>
 </sst>
 </file>
@@ -456,7 +505,49 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="90">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -474,6 +565,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -495,6 +600,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -516,6 +649,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -537,6 +712,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -558,6 +754,139 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF03E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -579,13 +908,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF03E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -628,175 +950,63 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF03E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF03E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF03E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF03E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF03E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF03E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF03E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF03E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF03E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF03E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF03E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1243,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A8A5A2-17C0-9748-9A4F-1C2DCE1038FB}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1263,170 +1473,170 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3 A6:A9">
-    <cfRule type="expression" dxfId="66" priority="25">
+    <cfRule type="expression" dxfId="89" priority="25">
       <formula>ISNUMBER(SEARCH("list", $A3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="26">
+    <cfRule type="expression" dxfId="88" priority="26">
       <formula>ISNUMBER(SEARCH("List", $A3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="27">
+    <cfRule type="expression" dxfId="87" priority="27">
       <formula>ISNUMBER(SEARCH(" or ", $A3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="63" priority="22">
+    <cfRule type="expression" dxfId="86" priority="22">
       <formula>ISNUMBER(SEARCH("list", $A2))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="23">
+    <cfRule type="expression" dxfId="85" priority="23">
       <formula>ISNUMBER(SEARCH("list", $A2))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="24">
+    <cfRule type="expression" dxfId="84" priority="24">
       <formula>ISNUMBER(SEARCH(" or ", $A2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="20" priority="16">
+    <cfRule type="expression" dxfId="83" priority="16">
       <formula>ISNUMBER(SEARCH("list", $A11))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="82" priority="17">
       <formula>ISNUMBER(SEARCH("List", $A11))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="81" priority="18">
       <formula>ISNUMBER(SEARCH(" or ", $A11))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="16" priority="13">
+    <cfRule type="expression" dxfId="80" priority="13">
       <formula>ISNUMBER(SEARCH("list", $A16))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="14">
+    <cfRule type="expression" dxfId="79" priority="14">
       <formula>ISNUMBER(SEARCH("List", $A16))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="78" priority="15">
       <formula>ISNUMBER(SEARCH(" or ", $A16))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="13" priority="10">
+    <cfRule type="expression" dxfId="77" priority="10">
       <formula>ISNUMBER(SEARCH("list", $A5))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="11">
+    <cfRule type="expression" dxfId="76" priority="11">
       <formula>ISNUMBER(SEARCH("List", $A5))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="75" priority="12">
       <formula>ISNUMBER(SEARCH(" or ", $A5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="74" priority="7">
       <formula>ISNUMBER(SEARCH("list", $A15))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="73" priority="8">
       <formula>ISNUMBER(SEARCH("List", $A15))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="72" priority="9">
       <formula>ISNUMBER(SEARCH(" or ", $A15))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="71" priority="4">
       <formula>ISNUMBER(SEARCH("list", $A4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="70" priority="5">
       <formula>ISNUMBER(SEARCH("List", $A4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="69" priority="6">
       <formula>ISNUMBER(SEARCH(" or ", $A4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="68" priority="1">
       <formula>ISNUMBER(SEARCH("list", $A10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="67" priority="2">
       <formula>ISNUMBER(SEARCH("List", $A10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="66" priority="3">
       <formula>ISNUMBER(SEARCH(" or ", $A10))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1442,14 +1652,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BBE448-41EC-734F-A56E-FF2BE28126E8}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="107.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1460,118 +1670,129 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="2">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A5 A8:A11">
-    <cfRule type="expression" dxfId="57" priority="10">
+  <conditionalFormatting sqref="A3:A5 A8:A11">
+    <cfRule type="expression" dxfId="65" priority="13">
+      <formula>ISNUMBER(SEARCH("list", $A3))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="14">
+      <formula>ISNUMBER(SEARCH("list", $A3))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="15">
+      <formula>ISNUMBER(SEARCH(" or ", $A3))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="expression" dxfId="62" priority="7">
+      <formula>ISNUMBER(SEARCH("list", $A6))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="8">
+      <formula>ISNUMBER(SEARCH("list", $A6))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="9">
+      <formula>ISNUMBER(SEARCH(" or ", $A6))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="expression" dxfId="59" priority="4">
+      <formula>ISNUMBER(SEARCH("list", $A7))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="5">
+      <formula>ISNUMBER(SEARCH("list", $A7))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="6">
+      <formula>ISNUMBER(SEARCH(" or ", $A7))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="expression" dxfId="56" priority="1">
       <formula>ISNUMBER(SEARCH("list", $A2))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="11">
-      <formula>ISNUMBER(SEARCH("list", $A2))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="12">
+    <cfRule type="expression" dxfId="55" priority="2">
+      <formula>ISNUMBER(SEARCH("List", $A2))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="3">
       <formula>ISNUMBER(SEARCH(" or ", $A2))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="54" priority="4">
-      <formula>ISNUMBER(SEARCH("list", $A6))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="5">
-      <formula>ISNUMBER(SEARCH("list", $A6))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="6">
-      <formula>ISNUMBER(SEARCH(" or ", $A6))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="expression" dxfId="51" priority="1">
-      <formula>ISNUMBER(SEARCH("list", $A7))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="2">
-      <formula>ISNUMBER(SEARCH("list", $A7))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="3">
-      <formula>ISNUMBER(SEARCH(" or ", $A7))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1584,13 +1805,13 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="101.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="114.83203125" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1603,82 +1824,82 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1885</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="1">
-        <v>20</v>
+        <v>89</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="162" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1687,35 +1908,46 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="48" priority="9">
+    <cfRule type="expression" dxfId="53" priority="12">
       <formula>ISNUMBER(SEARCH(" or ", $A16))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="47" priority="8">
+    <cfRule type="expression" dxfId="52" priority="11">
       <formula>ISNUMBER(SEARCH("list", $A16))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11 A2:A9">
-    <cfRule type="expression" dxfId="46" priority="7">
+  <conditionalFormatting sqref="A11 A2:A6 A8:A9">
+    <cfRule type="expression" dxfId="51" priority="10">
       <formula>ISNUMBER(SEARCH("list", $A2))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="10">
+    <cfRule type="expression" dxfId="50" priority="13">
       <formula>ISNUMBER(SEARCH("List", $A2))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="11">
+    <cfRule type="expression" dxfId="49" priority="14">
       <formula>ISNUMBER(SEARCH(" or ", $A2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="43" priority="1">
+    <cfRule type="expression" dxfId="48" priority="4">
       <formula>ISNUMBER(SEARCH("list", $A10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="2">
+    <cfRule type="expression" dxfId="47" priority="5">
       <formula>ISNUMBER(SEARCH("List", $A10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="3">
+    <cfRule type="expression" dxfId="46" priority="6">
       <formula>ISNUMBER(SEARCH(" or ", $A10))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>ISNUMBER(SEARCH("list", $A7))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISNUMBER(SEARCH("List", $A7))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>ISNUMBER(SEARCH(" or ", $A7))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1728,7 +1960,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1764,59 +1996,59 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
+      <c r="A4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -1824,59 +2056,59 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
         <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
         <v>3</v>
@@ -1884,88 +2116,89 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>97</v>
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" t="s">
-        <v>106</v>
+        <v>75</v>
+      </c>
+      <c r="B11" s="6">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>28</v>
       </c>
       <c r="F11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
@@ -1973,102 +2206,195 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B2 B6:B7 B10:B11 B4">
-    <cfRule type="expression" dxfId="40" priority="27">
+  <conditionalFormatting sqref="B2 B6:B7 B10:B11">
+    <cfRule type="expression" dxfId="45" priority="53">
       <formula>$F2="A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C7 C9:C11">
-    <cfRule type="expression" dxfId="39" priority="26">
+  <conditionalFormatting sqref="C2:C3 C10:C11 C5:C7">
+    <cfRule type="expression" dxfId="44" priority="52">
       <formula>$F2="B"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D4 D6:D7 D9:D11">
-    <cfRule type="expression" dxfId="38" priority="25">
+  <conditionalFormatting sqref="D2:D3 D6:D7 D11">
+    <cfRule type="expression" dxfId="43" priority="51">
       <formula>$F2="C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E4 E6:E7 E9:E11">
-    <cfRule type="expression" dxfId="37" priority="24">
+  <conditionalFormatting sqref="E2:E3 E6:E7 E10:E11">
+    <cfRule type="expression" dxfId="42" priority="50">
       <formula>$F2="D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18 A6">
-    <cfRule type="expression" dxfId="36" priority="21">
+    <cfRule type="expression" dxfId="41" priority="47">
       <formula>ISNUMBER(SEARCH("list", $A6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="22">
+    <cfRule type="expression" dxfId="40" priority="48">
       <formula>ISNUMBER(SEARCH("List", $A6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="23">
+    <cfRule type="expression" dxfId="39" priority="49">
       <formula>ISNUMBER(SEARCH(" or ", $A6))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="38" priority="37">
+      <formula>$F5="A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="37" priority="36">
+      <formula>$F5="D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="expression" dxfId="36" priority="74">
+      <formula>#REF!="B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="35" priority="33">
+      <formula>$F8="C"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5 A7:A8 A10:A11">
+    <cfRule type="expression" dxfId="34" priority="30">
+      <formula>ISNUMBER(SEARCH("list", $A5))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="31">
+      <formula>ISNUMBER(SEARCH("List", $A5))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="32">
+      <formula>ISNUMBER(SEARCH(" or ", $A5))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="31" priority="29">
+      <formula>$F5="C"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="expression" dxfId="30" priority="28">
+      <formula>$F8="D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" dxfId="29" priority="27">
+      <formula>$F3="A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="expression" dxfId="28" priority="24">
+      <formula>ISNUMBER(SEARCH("list", $A3))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="25">
+      <formula>ISNUMBER(SEARCH("List", $A3))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="26">
+      <formula>ISNUMBER(SEARCH(" or ", $A3))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="25" priority="23">
+      <formula>$F8="A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="24" priority="22">
+      <formula>$F10="D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="23" priority="21">
+      <formula>$F14="B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="22" priority="20">
+      <formula>$F14="C"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" dxfId="21" priority="19">
+      <formula>$F14="D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="20" priority="18">
+      <formula>$F14="A"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="33" priority="15">
+    <cfRule type="expression" dxfId="19" priority="15">
       <formula>ISNUMBER(SEARCH("list", $A14))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="16">
+    <cfRule type="expression" dxfId="18" priority="16">
       <formula>ISNUMBER(SEARCH("List", $A14))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="17">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>ISNUMBER(SEARCH(" or ", $A14))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="30" priority="11">
-      <formula>$F5="A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="29" priority="10">
-      <formula>$F5="D"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="28" priority="9">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>$F9="A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="27" priority="47">
-      <formula>#REF!="A"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="26" priority="48">
-      <formula>#REF!="B"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="24" priority="7">
-      <formula>$F8="C"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A5 A7:A11">
-    <cfRule type="expression" dxfId="23" priority="4">
-      <formula>ISNUMBER(SEARCH("list", $A3))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="5">
-      <formula>ISNUMBER(SEARCH("List", $A3))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="6">
-      <formula>ISNUMBER(SEARCH(" or ", $A3))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="17" priority="3">
-      <formula>$F5="C"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$F8="D"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$F3="A"</formula>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="expression" dxfId="15" priority="13">
+      <formula>$F9="B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="14" priority="12">
+      <formula>$F9="C"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>$F9="D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="expression" dxfId="12" priority="8">
+      <formula>ISNUMBER(SEARCH("list", $A9))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="9">
+      <formula>ISNUMBER(SEARCH("List", $A9))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>ISNUMBER(SEARCH(" or ", $A9))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>$F4="B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="8" priority="6">
+      <formula>$F4="C"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>$F4="D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>$F4="A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>ISNUMBER(SEARCH("list", $A4))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>ISNUMBER(SEARCH("List", $A4))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>ISNUMBER(SEARCH(" or ", $A4))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
